--- a/biology/Botanique/Souvenir_de_Louis_Amade/Souvenir_de_Louis_Amade.xlsx
+++ b/biology/Botanique/Souvenir_de_Louis_Amade/Souvenir_de_Louis_Amade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Souvenir de Louis Amade' est un cultivar de rosier obtenu en 1998 par le rosiériste français Georges Delbard. Cette création a été faite à la demande de l'Association des Amis de Louis Amade en souvenir de la chanson mise en parole par Louis Amade L'Important c'est la rose (1967) chantée par Gilbert Bécaud[1].
+'Souvenir de Louis Amade' est un cultivar de rosier obtenu en 1998 par le rosiériste français Georges Delbard. Cette création a été faite à la demande de l'Association des Amis de Louis Amade en souvenir de la chanson mise en parole par Louis Amade L'Important c'est la rose (1967) chantée par Gilbert Bécaud.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un rosier dont le buisson fourni et érigé présente de grandes fleurs doubles parfumées roses, faisant partie de la collection « les souvenirs d'amour parfumés ». Le buisson s'élève de 80 cm[2] à 100 cm[3], pour 75 cm de largeur[4]. Ce rosier exhibe de grandes fleurs turbinées et parfumées qui déploient de larges pétales (50) rose lilas dans les massifs[5]. 
-Ce rosier a une floraison généreuse et très remontante[6]. Il a été baptisé le dimanche 5 juin 2005 en présence de sa marraine Annie Cordy à la roseraie du Val-de-Marne située à L'Haÿ-les-Roses[1]. Cent quatre-vingts rosiers 'Souvenir de Louis Amade' ont été plantés en l'an 2000 dans la roseraie de l'abbaye Sainte-Marie de Fontfroide.On peut le cultiver aussi en pot[6]. Il fait d'excellentes fleurs coupées.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un rosier dont le buisson fourni et érigé présente de grandes fleurs doubles parfumées roses, faisant partie de la collection « les souvenirs d'amour parfumés ». Le buisson s'élève de 80 cm à 100 cm, pour 75 cm de largeur. Ce rosier exhibe de grandes fleurs turbinées et parfumées qui déploient de larges pétales (50) rose lilas dans les massifs. 
+Ce rosier a une floraison généreuse et très remontante. Il a été baptisé le dimanche 5 juin 2005 en présence de sa marraine Annie Cordy à la roseraie du Val-de-Marne située à L'Haÿ-les-Roses. Cent quatre-vingts rosiers 'Souvenir de Louis Amade' ont été plantés en l'an 2000 dans la roseraie de l'abbaye Sainte-Marie de Fontfroide.On peut le cultiver aussi en pot. Il fait d'excellentes fleurs coupées.
 On peut notamment l'admirer à l'Europa-Rosarium de Sangerhausen.
 </t>
         </is>
